--- a/FMStest/test/FMS接口.xlsx
+++ b/FMStest/test/FMS接口.xlsx
@@ -430,7 +430,7 @@
     <t>{"token":"ZGV2LDE1NjgxNjgzOTM1NDEsZWFmOTU1MTRkYTQyM2Y2MTE3OTRkYjg5MTUzMmFiNDY="}</t>
   </si>
   <si>
-    <t>{"username":"admin","password":"admi1"}</t>
+    <t>{"username":"admin","password":"admin"}</t>
   </si>
 </sst>
 </file>
